--- a/Projects/CCIT_SAND/Data/KPI_Templates.xlsx
+++ b/Projects/CCIT_SAND/Data/KPI_Templates.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="126">
   <si>
     <t xml:space="preserve">store type</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t xml:space="preserve">target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">points</t>
   </si>
 </sst>
 </file>
@@ -595,15 +598,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.5348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.5813953488372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8418604651163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.0418604651163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.9348837209302"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.046511627907"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.4883720930233"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.8883720930233"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3348837209302"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.5348837209302"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.4279069767442"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.293023255814"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.9813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5243,14 +5246,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8418604651163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.2139534883721"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.246511627907"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.3209302325581"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.753488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.4"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.9488372093023"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.7348837209302"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.9348837209302"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.1209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5430,25 +5433,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5023255813953"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.706976744186"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>124</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>0.8</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
